--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{211699AC-C401-45F7-9A69-5ABF49CCF625}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{02A32E4C-BCD4-4863-B1E4-979363DF3C62}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{211699AC-C401-45F7-9A69-5ABF49CCF625}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{B8D484AC-7AAF-4F3D-8200-668079534F1F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hogesheet" sheetId="1" r:id="rId1"/>
     <sheet name="s2" sheetId="2" r:id="rId2"/>
-    <sheet name="s3" sheetId="3" r:id="rId3"/>
+    <sheet name="formulas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179016"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>No.</t>
   </si>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1B3F30-D4B4-4659-93A4-6DFC17C01D38}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{00A005B2-6E9E-54D7-AB54-AB096C4C31D0}">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{00A005B2-6E9E-54D7-AB54-AB096C4C31D0}">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -486,12 +486,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7F40D-0D1E-4179-95AD-ABD2F2055674}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{DF138938-E3D2-5DC8-BBAD-C2E438B60BBA}"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{DF138938-E3D2-5DC8-BBAD-C2E438B60BBA}">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>